--- a/Output/ecos_macro_data.xlsx
+++ b/Output/ecos_macro_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="492">
   <si>
     <t xml:space="preserve">yearM</t>
   </si>
@@ -1199,18 +1199,6 @@
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4.4. 아파트 매매 실거래가격지수</t>
-  </si>
-  <si>
-    <t xml:space="preserve">서울</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4.4. Transaction-Based Price Indices of Apartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seoul</t>
-  </si>
-  <si>
     <t xml:space="preserve">APARTMENT_JEONSE</t>
   </si>
   <si>
@@ -1220,18 +1208,6 @@
     <t xml:space="preserve">P64ACA</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4.1.2. 주택전세가격지수(KB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아파트(서울)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4.1.2. House Jeonse Price Index(KB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartment(Seoul)</t>
-  </si>
-  <si>
     <t xml:space="preserve">CONSTRCTN_INVEST_G</t>
   </si>
   <si>
@@ -1301,18 +1277,6 @@
     <t xml:space="preserve">W</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.1.1. 수출물가지수(기본분류)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">총지수</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3.1.1. Export Price Indices (Basic Groups)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All items</t>
-  </si>
-  <si>
     <t xml:space="preserve">EXT2GNI</t>
   </si>
   <si>
@@ -1358,18 +1322,6 @@
     <t xml:space="preserve">99</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5. 외환보유액</t>
-  </si>
-  <si>
-    <t xml:space="preserve">합계</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5. International Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
-  </si>
-  <si>
     <t xml:space="preserve">GOODS_BAL</t>
   </si>
   <si>
@@ -1388,21 +1340,12 @@
     <t xml:space="preserve">P64A</t>
   </si>
   <si>
-    <t xml:space="preserve">All Groups</t>
-  </si>
-  <si>
     <t xml:space="preserve">IMPORT_PRICE</t>
   </si>
   <si>
     <t xml:space="preserve">401Y015</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.2.1. 수입물가지수(기본분류)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3.2.1. Import Price Indices(Basic Groups)</t>
-  </si>
-  <si>
     <t xml:space="preserve">LABOR_COST</t>
   </si>
   <si>
@@ -1412,18 +1355,6 @@
     <t xml:space="preserve">A70A</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6.6. 단위노동비용지수</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C 제조업</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6.6. Days Worked, Hours Worked, Wages by Industry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C. Manufacturing</t>
-  </si>
-  <si>
     <t xml:space="preserve">LABOR_PRODUCTIVITY</t>
   </si>
   <si>
@@ -1436,18 +1367,6 @@
     <t xml:space="preserve">I70</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6.5. 노동생산성지수</t>
-  </si>
-  <si>
-    <t xml:space="preserve">산업생산기준</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6.5. Index of Labor Porductivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Labor Productivity</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lf</t>
   </si>
   <si>
@@ -1514,18 +1433,6 @@
     <t xml:space="preserve">403Y005</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3.2. 교역조건지수</t>
-  </si>
-  <si>
-    <t xml:space="preserve">순상품교역조건지수</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.2. Terms of Trade Indices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net barter terms of trade index</t>
-  </si>
-  <si>
     <t xml:space="preserve">OPERATION_RATIO</t>
   </si>
   <si>
@@ -1535,18 +1442,6 @@
     <t xml:space="preserve">I31A</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3.7. 제조업 평균가동률</t>
-  </si>
-  <si>
-    <t xml:space="preserve">제조업</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3.7. Manufacturing Average Capacity Utilization Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturing</t>
-  </si>
-  <si>
     <t xml:space="preserve">PER_HOUR_WAGES</t>
   </si>
   <si>
@@ -1556,28 +1451,10 @@
     <t xml:space="preserve">A10001</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6.7. 시간당 명목임금지수</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALL 비농전산업</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6.7. Unit Labor Cost Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALL. Non-agricultural sector</t>
-  </si>
-  <si>
     <t xml:space="preserve">PPI</t>
   </si>
   <si>
     <t xml:space="preserve">404Y014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.1. 생산자물가지수(기본분류)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.1. Producer Price Indices  (Basic Groups)</t>
   </si>
   <si>
     <t xml:space="preserve">PRIVATE_CONSUM_G</t>
@@ -12271,7 +12148,7 @@
         <v>87.63</v>
       </c>
       <c r="O195" t="n">
-        <v>77.6</v>
+        <v>77</v>
       </c>
       <c r="P195" t="n">
         <v>114.95</v>
@@ -12291,19 +12168,19 @@
         <v>100.087</v>
       </c>
       <c r="D196" t="n">
-        <v>6729.4</v>
+        <v>7057.6</v>
       </c>
       <c r="E196" t="n">
         <v>125.6</v>
       </c>
       <c r="F196" t="n">
-        <v>5371.1</v>
+        <v>5658.7</v>
       </c>
       <c r="G196" t="n">
         <v>457810337</v>
       </c>
       <c r="H196" t="n">
-        <v>5309.5</v>
+        <v>5637.5</v>
       </c>
       <c r="I196" t="n">
         <v>100.33</v>
@@ -12324,13 +12201,13 @@
         <v>87.43</v>
       </c>
       <c r="O196" t="n">
-        <v>78.9</v>
+        <v>78.3</v>
       </c>
       <c r="P196" t="n">
         <v>116.7</v>
       </c>
       <c r="Q196" t="n">
-        <v>357.8</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -19980,7 +19857,7 @@
         <v>-3.9</v>
       </c>
       <c r="C130" t="n">
-        <v>15064.3</v>
+        <v>15392.5</v>
       </c>
       <c r="D130" t="n">
         <v>30.6</v>
@@ -19995,11 +19872,11 @@
         <v>-3.9</v>
       </c>
       <c r="H130" t="n">
-        <v>13684.3</v>
+        <v>13971.9</v>
       </c>
       <c r="I130"/>
       <c r="J130" t="n">
-        <v>10402.9</v>
+        <v>10730.9</v>
       </c>
       <c r="K130" t="n">
         <v>140.21</v>
@@ -20011,7 +19888,7 @@
         <v>88.09</v>
       </c>
       <c r="P130" t="n">
-        <v>78.4</v>
+        <v>78</v>
       </c>
       <c r="Q130"/>
       <c r="R130" t="n">
@@ -20024,7 +19901,7 @@
         <v>35.7</v>
       </c>
       <c r="U130" t="n">
-        <v>435.7</v>
+        <v>435.9</v>
       </c>
     </row>
   </sheetData>
@@ -21729,28 +21606,20 @@
       <c r="F2" t="s">
         <v>393</v>
       </c>
-      <c r="G2" t="s">
-        <v>394</v>
-      </c>
-      <c r="H2" t="s">
-        <v>395</v>
-      </c>
-      <c r="I2" t="s">
-        <v>396</v>
-      </c>
-      <c r="J2" t="s">
-        <v>397</v>
-      </c>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D3" t="s">
         <v>392</v>
@@ -21761,28 +21630,20 @@
       <c r="F3" t="s">
         <v>393</v>
       </c>
-      <c r="G3" t="s">
-        <v>401</v>
-      </c>
-      <c r="H3" t="s">
-        <v>402</v>
-      </c>
-      <c r="I3" t="s">
-        <v>403</v>
-      </c>
-      <c r="J3" t="s">
-        <v>404</v>
-      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B4" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C4" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D4" t="s">
         <v>392</v>
@@ -21791,30 +21652,30 @@
         <v>248</v>
       </c>
       <c r="F4" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G4" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="H4" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="I4" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="J4" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B5" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C5" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="D5" t="s">
         <v>392</v>
@@ -21826,27 +21687,27 @@
         <v>393</v>
       </c>
       <c r="G5" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="H5" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="I5" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="J5" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B6" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C6" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="D6" t="s">
         <v>392</v>
@@ -21855,33 +21716,33 @@
         <v>248</v>
       </c>
       <c r="F6" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G6" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="H6" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="I6" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="J6" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="D7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="E7" t="n">
         <v>616</v>
@@ -21889,28 +21750,20 @@
       <c r="F7" t="s">
         <v>393</v>
       </c>
-      <c r="G7" t="s">
-        <v>428</v>
-      </c>
-      <c r="H7" t="s">
-        <v>429</v>
-      </c>
-      <c r="I7" t="s">
-        <v>430</v>
-      </c>
-      <c r="J7" t="s">
-        <v>431</v>
-      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="B8" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C8" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="D8" t="s">
         <v>392</v>
@@ -21919,30 +21772,30 @@
         <v>248</v>
       </c>
       <c r="F8" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G8" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="H8" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="I8" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="J8" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B9" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C9" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="D9" t="s">
         <v>392</v>
@@ -21951,30 +21804,30 @@
         <v>248</v>
       </c>
       <c r="F9" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G9" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="H9" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="I9" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="J9" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B10" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C10" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="D10" t="s">
         <v>392</v>
@@ -21986,27 +21839,27 @@
         <v>393</v>
       </c>
       <c r="G10" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="H10" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="I10" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="J10" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B11" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="C11" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="D11" t="s">
         <v>392</v>
@@ -22017,28 +21870,20 @@
       <c r="F11" t="s">
         <v>393</v>
       </c>
-      <c r="G11" t="s">
-        <v>447</v>
-      </c>
-      <c r="H11" t="s">
-        <v>448</v>
-      </c>
-      <c r="I11" t="s">
-        <v>449</v>
-      </c>
-      <c r="J11" t="s">
-        <v>450</v>
-      </c>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="B12" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C12" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="D12" t="s">
         <v>392</v>
@@ -22050,27 +21895,27 @@
         <v>393</v>
       </c>
       <c r="G12" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="H12" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="I12" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="J12" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="B13" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C13" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="D13" t="s">
         <v>392</v>
@@ -22081,31 +21926,23 @@
       <c r="F13" t="s">
         <v>393</v>
       </c>
-      <c r="G13" t="s">
-        <v>401</v>
-      </c>
-      <c r="H13" t="s">
-        <v>429</v>
-      </c>
-      <c r="I13" t="s">
-        <v>403</v>
-      </c>
-      <c r="J13" t="s">
-        <v>457</v>
-      </c>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="B14" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="C14" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="D14" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="E14" t="n">
         <v>616</v>
@@ -22113,28 +21950,20 @@
       <c r="F14" t="s">
         <v>393</v>
       </c>
-      <c r="G14" t="s">
-        <v>460</v>
-      </c>
-      <c r="H14" t="s">
-        <v>429</v>
-      </c>
-      <c r="I14" t="s">
-        <v>461</v>
-      </c>
-      <c r="J14" t="s">
-        <v>431</v>
-      </c>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="B15" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="C15" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="D15" t="s">
         <v>392</v>
@@ -22143,62 +21972,46 @@
         <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>408</v>
-      </c>
-      <c r="G15" t="s">
-        <v>465</v>
-      </c>
-      <c r="H15" t="s">
-        <v>466</v>
-      </c>
-      <c r="I15" t="s">
-        <v>467</v>
-      </c>
-      <c r="J15" t="s">
-        <v>468</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="B16" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="C16" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="D16" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="E16" t="n">
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>408</v>
-      </c>
-      <c r="G16" t="s">
-        <v>473</v>
-      </c>
-      <c r="H16" t="s">
-        <v>474</v>
-      </c>
-      <c r="I16" t="s">
-        <v>475</v>
-      </c>
-      <c r="J16" t="s">
-        <v>476</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="B17" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
       <c r="C17" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="D17" t="s">
         <v>392</v>
@@ -22210,27 +22023,27 @@
         <v>393</v>
       </c>
       <c r="G17" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="H17" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="I17" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="J17" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>484</v>
+        <v>457</v>
       </c>
       <c r="B18" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
       <c r="C18" t="s">
-        <v>486</v>
+        <v>459</v>
       </c>
       <c r="D18" t="s">
         <v>392</v>
@@ -22242,27 +22055,27 @@
         <v>393</v>
       </c>
       <c r="G18" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="H18" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="I18" t="s">
-        <v>489</v>
+        <v>462</v>
       </c>
       <c r="J18" t="s">
-        <v>484</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="B19" t="s">
-        <v>491</v>
+        <v>464</v>
       </c>
       <c r="C19" t="s">
-        <v>492</v>
+        <v>465</v>
       </c>
       <c r="D19" t="s">
         <v>392</v>
@@ -22274,27 +22087,27 @@
         <v>393</v>
       </c>
       <c r="G19" t="s">
-        <v>493</v>
+        <v>466</v>
       </c>
       <c r="H19" t="s">
-        <v>494</v>
+        <v>467</v>
       </c>
       <c r="I19" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
       <c r="J19" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="B20" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="C20" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="D20" t="s">
         <v>392</v>
@@ -22305,28 +22118,20 @@
       <c r="F20" t="s">
         <v>393</v>
       </c>
-      <c r="G20" t="s">
-        <v>499</v>
-      </c>
-      <c r="H20" t="s">
-        <v>500</v>
-      </c>
-      <c r="I20" t="s">
-        <v>501</v>
-      </c>
-      <c r="J20" t="s">
-        <v>502</v>
-      </c>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="B21" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="C21" t="s">
-        <v>505</v>
+        <v>474</v>
       </c>
       <c r="D21" t="s">
         <v>392</v>
@@ -22337,28 +22142,20 @@
       <c r="F21" t="s">
         <v>393</v>
       </c>
-      <c r="G21" t="s">
-        <v>506</v>
-      </c>
-      <c r="H21" t="s">
-        <v>507</v>
-      </c>
-      <c r="I21" t="s">
-        <v>508</v>
-      </c>
-      <c r="J21" t="s">
-        <v>509</v>
-      </c>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="B22" t="s">
-        <v>511</v>
+        <v>476</v>
       </c>
       <c r="C22" t="s">
-        <v>512</v>
+        <v>477</v>
       </c>
       <c r="D22" t="s">
         <v>392</v>
@@ -22367,30 +22164,22 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>408</v>
-      </c>
-      <c r="G22" t="s">
-        <v>513</v>
-      </c>
-      <c r="H22" t="s">
-        <v>514</v>
-      </c>
-      <c r="I22" t="s">
-        <v>515</v>
-      </c>
-      <c r="J22" t="s">
-        <v>516</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>517</v>
+        <v>478</v>
       </c>
       <c r="B23" t="s">
-        <v>518</v>
+        <v>479</v>
       </c>
       <c r="C23" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="D23" t="s">
         <v>392</v>
@@ -22401,28 +22190,20 @@
       <c r="F23" t="s">
         <v>393</v>
       </c>
-      <c r="G23" t="s">
-        <v>519</v>
-      </c>
-      <c r="H23" t="s">
-        <v>429</v>
-      </c>
-      <c r="I23" t="s">
-        <v>520</v>
-      </c>
-      <c r="J23" t="s">
-        <v>431</v>
-      </c>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>521</v>
+        <v>480</v>
       </c>
       <c r="B24" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C24" t="s">
-        <v>522</v>
+        <v>481</v>
       </c>
       <c r="D24" t="s">
         <v>392</v>
@@ -22431,30 +22212,30 @@
         <v>248</v>
       </c>
       <c r="F24" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G24" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="H24" t="s">
-        <v>523</v>
+        <v>482</v>
       </c>
       <c r="I24" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="J24" t="s">
-        <v>524</v>
+        <v>483</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>525</v>
+        <v>484</v>
       </c>
       <c r="B25" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C25" t="s">
-        <v>526</v>
+        <v>485</v>
       </c>
       <c r="D25" t="s">
         <v>392</v>
@@ -22463,30 +22244,30 @@
         <v>248</v>
       </c>
       <c r="F25" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G25" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="H25" t="s">
-        <v>527</v>
+        <v>486</v>
       </c>
       <c r="I25" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="J25" t="s">
-        <v>528</v>
+        <v>487</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>529</v>
+        <v>488</v>
       </c>
       <c r="B26" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C26" t="s">
-        <v>530</v>
+        <v>489</v>
       </c>
       <c r="D26" t="s">
         <v>392</v>
@@ -22498,16 +22279,16 @@
         <v>393</v>
       </c>
       <c r="G26" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="H26" t="s">
-        <v>531</v>
+        <v>490</v>
       </c>
       <c r="I26" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="J26" t="s">
-        <v>532</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>

--- a/Output/ecos_macro_data.xlsx
+++ b/Output/ecos_macro_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="533">
   <si>
     <t xml:space="preserve">yearM</t>
   </si>
@@ -68,589 +68,589 @@
     <t xml:space="preserve">SERVICES_BAL_M</t>
   </si>
   <si>
-    <t xml:space="preserve">Jan 2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feb 2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar 2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apr 2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jun 2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jul 2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aug 2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep 2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oct 2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nov 2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dec 2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feb 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apr 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jun 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jul 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aug 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oct 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nov 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dec 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan 2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feb 2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar 2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apr 2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jun 2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jul 2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aug 2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep 2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oct 2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nov 2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dec 2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feb 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apr 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jun 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jul 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aug 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oct 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nov 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dec 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feb 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apr 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jun 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jul 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aug 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oct 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nov 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dec 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feb 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apr 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jun 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jul 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aug 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oct 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nov 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dec 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feb 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apr 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jun 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jul 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aug 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oct 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nov 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dec 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feb 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apr 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jun 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jul 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aug 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oct 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nov 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dec 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feb 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apr 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jun 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jul 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aug 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oct 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nov 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dec 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feb 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apr 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jun 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jul 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aug 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oct 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nov 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dec 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feb 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apr 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jun 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jul 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aug 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oct 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nov 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dec 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feb 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apr 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jun 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jul 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aug 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oct 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nov 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dec 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feb 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apr 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jun 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jul 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aug 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oct 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nov 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dec 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feb 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apr 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jun 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jul 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aug 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oct 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nov 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dec 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feb 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apr 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jun 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jul 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aug 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oct 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nov 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dec 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feb 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apr 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jun 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jul 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aug 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oct 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nov 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dec 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feb 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar 2022</t>
+    <t xml:space="preserve"> 1월 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2월 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3월 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4월 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5월 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6월 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7월 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8월 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9월 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10월 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11월 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12월 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1월 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2월 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3월 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4월 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5월 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6월 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7월 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8월 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9월 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10월 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11월 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12월 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1월 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2월 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3월 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4월 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5월 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6월 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7월 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8월 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9월 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10월 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11월 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12월 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1월 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2월 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3월 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4월 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5월 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6월 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7월 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8월 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9월 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10월 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11월 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12월 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1월 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2월 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3월 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4월 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5월 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6월 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7월 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8월 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9월 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10월 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11월 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12월 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1월 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2월 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3월 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4월 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5월 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6월 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7월 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8월 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9월 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10월 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11월 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12월 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1월 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2월 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3월 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4월 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5월 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6월 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7월 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8월 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9월 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10월 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11월 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12월 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1월 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2월 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3월 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4월 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5월 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6월 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7월 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8월 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9월 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10월 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11월 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12월 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1월 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2월 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3월 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4월 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5월 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6월 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7월 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8월 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9월 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10월 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11월 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12월 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1월 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2월 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3월 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4월 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5월 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6월 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7월 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8월 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9월 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10월 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11월 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12월 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1월 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2월 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3월 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4월 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5월 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6월 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7월 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8월 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9월 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10월 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11월 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12월 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1월 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2월 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3월 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4월 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5월 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6월 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7월 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8월 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9월 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10월 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11월 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12월 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1월 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2월 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3월 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4월 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5월 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6월 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7월 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8월 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9월 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10월 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11월 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12월 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1월 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2월 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3월 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4월 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5월 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6월 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7월 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8월 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9월 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10월 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11월 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12월 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1월 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2월 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3월 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4월 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5월 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6월 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7월 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8월 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9월 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10월 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11월 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12월 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1월 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2월 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3월 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4월 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5월 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6월 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7월 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8월 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9월 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10월 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11월 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12월 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1월 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2월 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3월 2022</t>
   </si>
   <si>
     <t xml:space="preserve">yearQ</t>
@@ -1199,6 +1199,18 @@
     <t xml:space="preserve">M</t>
   </si>
   <si>
+    <t xml:space="preserve">4.4.4. 아파트 매매 실거래가격지수</t>
+  </si>
+  <si>
+    <t xml:space="preserve">서울</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4.4. Transaction-Based Price Indices of Apartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seoul</t>
+  </si>
+  <si>
     <t xml:space="preserve">APARTMENT_JEONSE</t>
   </si>
   <si>
@@ -1208,6 +1220,18 @@
     <t xml:space="preserve">P64ACA</t>
   </si>
   <si>
+    <t xml:space="preserve">4.4.1.2. 주택전세가격지수(KB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아파트(서울)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4.1.2. House Jeonse Price Index(KB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartment(Seoul)</t>
+  </si>
+  <si>
     <t xml:space="preserve">CONSTRCTN_INVEST_G</t>
   </si>
   <si>
@@ -1277,6 +1301,18 @@
     <t xml:space="preserve">W</t>
   </si>
   <si>
+    <t xml:space="preserve">4.3.1.1. 수출물가지수(기본분류)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">총지수</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.1.1. Export Price Indices (Basic Groups)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All items</t>
+  </si>
+  <si>
     <t xml:space="preserve">EXT2GNI</t>
   </si>
   <si>
@@ -1322,6 +1358,18 @@
     <t xml:space="preserve">99</t>
   </si>
   <si>
+    <t xml:space="preserve">3.5. 외환보유액</t>
+  </si>
+  <si>
+    <t xml:space="preserve">합계</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5. International Reserves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
     <t xml:space="preserve">GOODS_BAL</t>
   </si>
   <si>
@@ -1340,12 +1388,21 @@
     <t xml:space="preserve">P64A</t>
   </si>
   <si>
+    <t xml:space="preserve">All Groups</t>
+  </si>
+  <si>
     <t xml:space="preserve">IMPORT_PRICE</t>
   </si>
   <si>
     <t xml:space="preserve">401Y015</t>
   </si>
   <si>
+    <t xml:space="preserve">4.3.2.1. 수입물가지수(기본분류)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.2.1. Import Price Indices(Basic Groups)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LABOR_COST</t>
   </si>
   <si>
@@ -1355,6 +1412,18 @@
     <t xml:space="preserve">A70A</t>
   </si>
   <si>
+    <t xml:space="preserve">8.6.6. 단위노동비용지수</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C 제조업</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6.6. Days Worked, Hours Worked, Wages by Industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. Manufacturing</t>
+  </si>
+  <si>
     <t xml:space="preserve">LABOR_PRODUCTIVITY</t>
   </si>
   <si>
@@ -1367,6 +1436,18 @@
     <t xml:space="preserve">I70</t>
   </si>
   <si>
+    <t xml:space="preserve">8.6.5. 노동생산성지수</t>
+  </si>
+  <si>
+    <t xml:space="preserve">산업생산기준</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6.5. Index of Labor Porductivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labor Productivity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lf</t>
   </si>
   <si>
@@ -1433,6 +1514,18 @@
     <t xml:space="preserve">403Y005</t>
   </si>
   <si>
+    <t xml:space="preserve">3.3.2. 교역조건지수</t>
+  </si>
+  <si>
+    <t xml:space="preserve">순상품교역조건지수</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.2. Terms of Trade Indices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net barter terms of trade index</t>
+  </si>
+  <si>
     <t xml:space="preserve">OPERATION_RATIO</t>
   </si>
   <si>
@@ -1442,6 +1535,18 @@
     <t xml:space="preserve">I31A</t>
   </si>
   <si>
+    <t xml:space="preserve">8.3.7. 제조업 평균가동률</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제조업</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3.7. Manufacturing Average Capacity Utilization Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturing</t>
+  </si>
+  <si>
     <t xml:space="preserve">PER_HOUR_WAGES</t>
   </si>
   <si>
@@ -1451,10 +1556,28 @@
     <t xml:space="preserve">A10001</t>
   </si>
   <si>
+    <t xml:space="preserve">8.6.7. 시간당 명목임금지수</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL 비농전산업</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6.7. Unit Labor Cost Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL. Non-agricultural sector</t>
+  </si>
+  <si>
     <t xml:space="preserve">PPI</t>
   </si>
   <si>
     <t xml:space="preserve">404Y014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.1. 생산자물가지수(기본분류)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.1. Producer Price Indices  (Basic Groups)</t>
   </si>
   <si>
     <t xml:space="preserve">PRIVATE_CONSUM_G</t>
@@ -12189,13 +12312,13 @@
         <v>149.23</v>
       </c>
       <c r="K196" t="n">
-        <v>5007045.1</v>
+        <v>5006736.4</v>
       </c>
       <c r="L196" t="n">
         <v>1358872.8</v>
       </c>
       <c r="M196" t="n">
-        <v>3658520.6</v>
+        <v>3658533.9</v>
       </c>
       <c r="N196" t="n">
         <v>87.43</v>
@@ -21606,20 +21729,28 @@
       <c r="F2" t="s">
         <v>393</v>
       </c>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
+      <c r="G2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H2" t="s">
+        <v>395</v>
+      </c>
+      <c r="I2" t="s">
+        <v>396</v>
+      </c>
+      <c r="J2" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B3" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C3" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D3" t="s">
         <v>392</v>
@@ -21630,20 +21761,28 @@
       <c r="F3" t="s">
         <v>393</v>
       </c>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
+      <c r="G3" t="s">
+        <v>401</v>
+      </c>
+      <c r="H3" t="s">
+        <v>402</v>
+      </c>
+      <c r="I3" t="s">
+        <v>403</v>
+      </c>
+      <c r="J3" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="B4" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="C4" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D4" t="s">
         <v>392</v>
@@ -21652,30 +21791,30 @@
         <v>248</v>
       </c>
       <c r="F4" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="G4" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="H4" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="I4" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="J4" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="B5" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C5" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="D5" t="s">
         <v>392</v>
@@ -21687,27 +21826,27 @@
         <v>393</v>
       </c>
       <c r="G5" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="H5" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="I5" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="J5" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B6" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="C6" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="D6" t="s">
         <v>392</v>
@@ -21716,33 +21855,33 @@
         <v>248</v>
       </c>
       <c r="F6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="G6" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="H6" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="I6" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="J6" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="D7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="E7" t="n">
         <v>616</v>
@@ -21750,20 +21889,28 @@
       <c r="F7" t="s">
         <v>393</v>
       </c>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
+      <c r="G7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H7" t="s">
+        <v>429</v>
+      </c>
+      <c r="I7" t="s">
+        <v>430</v>
+      </c>
+      <c r="J7" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="B8" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="C8" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>392</v>
@@ -21772,30 +21919,30 @@
         <v>248</v>
       </c>
       <c r="F8" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="G8" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="H8" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="I8" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="J8" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="B9" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="C9" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="D9" t="s">
         <v>392</v>
@@ -21804,30 +21951,30 @@
         <v>248</v>
       </c>
       <c r="F9" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="G9" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="H9" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="I9" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="J9" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B10" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C10" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="D10" t="s">
         <v>392</v>
@@ -21839,27 +21986,27 @@
         <v>393</v>
       </c>
       <c r="G10" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="H10" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="I10" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="J10" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="B11" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="C11" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="D11" t="s">
         <v>392</v>
@@ -21870,20 +22017,28 @@
       <c r="F11" t="s">
         <v>393</v>
       </c>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
+      <c r="G11" t="s">
+        <v>447</v>
+      </c>
+      <c r="H11" t="s">
+        <v>448</v>
+      </c>
+      <c r="I11" t="s">
+        <v>449</v>
+      </c>
+      <c r="J11" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="B12" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C12" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="D12" t="s">
         <v>392</v>
@@ -21895,27 +22050,27 @@
         <v>393</v>
       </c>
       <c r="G12" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="H12" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="I12" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="J12" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="B13" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C13" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="D13" t="s">
         <v>392</v>
@@ -21926,23 +22081,31 @@
       <c r="F13" t="s">
         <v>393</v>
       </c>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
+      <c r="G13" t="s">
+        <v>401</v>
+      </c>
+      <c r="H13" t="s">
+        <v>429</v>
+      </c>
+      <c r="I13" t="s">
+        <v>403</v>
+      </c>
+      <c r="J13" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="B14" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="C14" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="D14" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="E14" t="n">
         <v>616</v>
@@ -21950,20 +22113,28 @@
       <c r="F14" t="s">
         <v>393</v>
       </c>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
+      <c r="G14" t="s">
+        <v>460</v>
+      </c>
+      <c r="H14" t="s">
+        <v>429</v>
+      </c>
+      <c r="I14" t="s">
+        <v>461</v>
+      </c>
+      <c r="J14" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="B15" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="C15" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="D15" t="s">
         <v>392</v>
@@ -21972,46 +22143,62 @@
         <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>400</v>
-      </c>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
+        <v>408</v>
+      </c>
+      <c r="G15" t="s">
+        <v>465</v>
+      </c>
+      <c r="H15" t="s">
+        <v>466</v>
+      </c>
+      <c r="I15" t="s">
+        <v>467</v>
+      </c>
+      <c r="J15" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="B16" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="C16" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="D16" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="E16" t="n">
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>400</v>
-      </c>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
+        <v>408</v>
+      </c>
+      <c r="G16" t="s">
+        <v>473</v>
+      </c>
+      <c r="H16" t="s">
+        <v>474</v>
+      </c>
+      <c r="I16" t="s">
+        <v>475</v>
+      </c>
+      <c r="J16" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="B17" t="s">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="C17" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
       <c r="D17" t="s">
         <v>392</v>
@@ -22023,27 +22210,27 @@
         <v>393</v>
       </c>
       <c r="G17" t="s">
-        <v>453</v>
+        <v>480</v>
       </c>
       <c r="H17" t="s">
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="I17" t="s">
-        <v>455</v>
+        <v>482</v>
       </c>
       <c r="J17" t="s">
-        <v>456</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>457</v>
+        <v>484</v>
       </c>
       <c r="B18" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="C18" t="s">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="D18" t="s">
         <v>392</v>
@@ -22055,27 +22242,27 @@
         <v>393</v>
       </c>
       <c r="G18" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="H18" t="s">
-        <v>461</v>
+        <v>488</v>
       </c>
       <c r="I18" t="s">
-        <v>462</v>
+        <v>489</v>
       </c>
       <c r="J18" t="s">
-        <v>457</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>463</v>
+        <v>490</v>
       </c>
       <c r="B19" t="s">
-        <v>464</v>
+        <v>491</v>
       </c>
       <c r="C19" t="s">
-        <v>465</v>
+        <v>492</v>
       </c>
       <c r="D19" t="s">
         <v>392</v>
@@ -22087,27 +22274,27 @@
         <v>393</v>
       </c>
       <c r="G19" t="s">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="H19" t="s">
-        <v>467</v>
+        <v>494</v>
       </c>
       <c r="I19" t="s">
-        <v>468</v>
+        <v>495</v>
       </c>
       <c r="J19" t="s">
-        <v>469</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
       <c r="B20" t="s">
+        <v>498</v>
+      </c>
+      <c r="C20" t="s">
         <v>471</v>
-      </c>
-      <c r="C20" t="s">
-        <v>448</v>
       </c>
       <c r="D20" t="s">
         <v>392</v>
@@ -22118,20 +22305,28 @@
       <c r="F20" t="s">
         <v>393</v>
       </c>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
+      <c r="G20" t="s">
+        <v>499</v>
+      </c>
+      <c r="H20" t="s">
+        <v>500</v>
+      </c>
+      <c r="I20" t="s">
+        <v>501</v>
+      </c>
+      <c r="J20" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="B21" t="s">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="C21" t="s">
-        <v>474</v>
+        <v>505</v>
       </c>
       <c r="D21" t="s">
         <v>392</v>
@@ -22142,20 +22337,28 @@
       <c r="F21" t="s">
         <v>393</v>
       </c>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
+      <c r="G21" t="s">
+        <v>506</v>
+      </c>
+      <c r="H21" t="s">
+        <v>507</v>
+      </c>
+      <c r="I21" t="s">
+        <v>508</v>
+      </c>
+      <c r="J21" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>475</v>
+        <v>510</v>
       </c>
       <c r="B22" t="s">
-        <v>476</v>
+        <v>511</v>
       </c>
       <c r="C22" t="s">
-        <v>477</v>
+        <v>512</v>
       </c>
       <c r="D22" t="s">
         <v>392</v>
@@ -22164,22 +22367,30 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>400</v>
-      </c>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
+        <v>408</v>
+      </c>
+      <c r="G22" t="s">
+        <v>513</v>
+      </c>
+      <c r="H22" t="s">
+        <v>514</v>
+      </c>
+      <c r="I22" t="s">
+        <v>515</v>
+      </c>
+      <c r="J22" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="B23" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="C23" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="D23" t="s">
         <v>392</v>
@@ -22190,20 +22401,28 @@
       <c r="F23" t="s">
         <v>393</v>
       </c>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
+      <c r="G23" t="s">
+        <v>519</v>
+      </c>
+      <c r="H23" t="s">
+        <v>429</v>
+      </c>
+      <c r="I23" t="s">
+        <v>520</v>
+      </c>
+      <c r="J23" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>480</v>
+        <v>521</v>
       </c>
       <c r="B24" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="C24" t="s">
-        <v>481</v>
+        <v>522</v>
       </c>
       <c r="D24" t="s">
         <v>392</v>
@@ -22212,30 +22431,30 @@
         <v>248</v>
       </c>
       <c r="F24" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="G24" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="H24" t="s">
-        <v>482</v>
+        <v>523</v>
       </c>
       <c r="I24" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="J24" t="s">
-        <v>483</v>
+        <v>524</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>484</v>
+        <v>525</v>
       </c>
       <c r="B25" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="C25" t="s">
-        <v>485</v>
+        <v>526</v>
       </c>
       <c r="D25" t="s">
         <v>392</v>
@@ -22244,30 +22463,30 @@
         <v>248</v>
       </c>
       <c r="F25" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="G25" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="H25" t="s">
-        <v>486</v>
+        <v>527</v>
       </c>
       <c r="I25" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="J25" t="s">
-        <v>487</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>488</v>
+        <v>529</v>
       </c>
       <c r="B26" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C26" t="s">
-        <v>489</v>
+        <v>530</v>
       </c>
       <c r="D26" t="s">
         <v>392</v>
@@ -22279,16 +22498,16 @@
         <v>393</v>
       </c>
       <c r="G26" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="H26" t="s">
-        <v>490</v>
+        <v>531</v>
       </c>
       <c r="I26" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="J26" t="s">
-        <v>491</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>

--- a/Output/ecos_macro_data.xlsx
+++ b/Output/ecos_macro_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="534">
   <si>
     <t xml:space="preserve">yearM</t>
   </si>
@@ -651,6 +651,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 3월 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4월 2022</t>
   </si>
   <si>
     <t xml:space="preserve">yearQ</t>
@@ -3222,7 +3225,7 @@
         <v>40</v>
       </c>
       <c r="B25" t="n">
-        <v>78.5</v>
+        <v>78.6</v>
       </c>
       <c r="C25" t="n">
         <v>44.84</v>
@@ -4282,7 +4285,7 @@
         <v>60</v>
       </c>
       <c r="B45" t="n">
-        <v>86</v>
+        <v>86.1</v>
       </c>
       <c r="C45" t="n">
         <v>45.286</v>
@@ -5448,7 +5451,7 @@
         <v>82</v>
       </c>
       <c r="B67" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="C67" t="n">
         <v>54.544</v>
@@ -7674,7 +7677,7 @@
         <v>124</v>
       </c>
       <c r="B109" t="n">
-        <v>80.1</v>
+        <v>80.2</v>
       </c>
       <c r="C109" t="n">
         <v>67.737</v>
@@ -8204,7 +8207,7 @@
         <v>134</v>
       </c>
       <c r="B119" t="n">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="C119" t="n">
         <v>73.234</v>
@@ -8522,7 +8525,7 @@
         <v>140</v>
       </c>
       <c r="B125" t="n">
-        <v>86.9</v>
+        <v>87</v>
       </c>
       <c r="C125" t="n">
         <v>75.12</v>
@@ -8893,7 +8896,7 @@
         <v>147</v>
       </c>
       <c r="B132" t="n">
-        <v>93</v>
+        <v>93.1</v>
       </c>
       <c r="C132" t="n">
         <v>76.412</v>
@@ -10059,7 +10062,7 @@
         <v>169</v>
       </c>
       <c r="B154" t="n">
-        <v>120.1</v>
+        <v>120</v>
       </c>
       <c r="C154" t="n">
         <v>78.973</v>
@@ -10112,7 +10115,7 @@
         <v>170</v>
       </c>
       <c r="B155" t="n">
-        <v>121.2</v>
+        <v>121.1</v>
       </c>
       <c r="C155" t="n">
         <v>79.35</v>
@@ -11331,7 +11334,7 @@
         <v>193</v>
       </c>
       <c r="B178" t="n">
-        <v>148.4</v>
+        <v>148.3</v>
       </c>
       <c r="C178" t="n">
         <v>83.896</v>
@@ -11543,7 +11546,7 @@
         <v>197</v>
       </c>
       <c r="B182" t="n">
-        <v>159.6</v>
+        <v>159.5</v>
       </c>
       <c r="C182" t="n">
         <v>90.48</v>
@@ -11649,7 +11652,7 @@
         <v>199</v>
       </c>
       <c r="B184" t="n">
-        <v>162.8</v>
+        <v>162.7</v>
       </c>
       <c r="C184" t="n">
         <v>92.208</v>
@@ -11702,7 +11705,7 @@
         <v>200</v>
       </c>
       <c r="B185" t="n">
-        <v>163.8</v>
+        <v>163.7</v>
       </c>
       <c r="C185" t="n">
         <v>92.723</v>
@@ -11755,7 +11758,7 @@
         <v>201</v>
       </c>
       <c r="B186" t="n">
-        <v>166.6</v>
+        <v>166.5</v>
       </c>
       <c r="C186" t="n">
         <v>93.393</v>
@@ -11808,7 +11811,7 @@
         <v>202</v>
       </c>
       <c r="B187" t="n">
-        <v>170.3</v>
+        <v>170.2</v>
       </c>
       <c r="C187" t="n">
         <v>94.774</v>
@@ -11914,7 +11917,7 @@
         <v>204</v>
       </c>
       <c r="B189" t="n">
-        <v>176.8</v>
+        <v>176.7</v>
       </c>
       <c r="C189" t="n">
         <v>96.876</v>
@@ -11967,7 +11970,7 @@
         <v>205</v>
       </c>
       <c r="B190" t="n">
-        <v>179.5</v>
+        <v>179.6</v>
       </c>
       <c r="C190" t="n">
         <v>97.866</v>
@@ -12073,7 +12076,7 @@
         <v>207</v>
       </c>
       <c r="B192" t="n">
-        <v>178.3</v>
+        <v>178.4</v>
       </c>
       <c r="C192" t="n">
         <v>99.246</v>
@@ -12179,7 +12182,7 @@
         <v>209</v>
       </c>
       <c r="B194" t="n">
-        <v>175.4</v>
+        <v>175.6</v>
       </c>
       <c r="C194" t="n">
         <v>100</v>
@@ -12232,7 +12235,7 @@
         <v>210</v>
       </c>
       <c r="B195" t="n">
-        <v>173.7</v>
+        <v>173.9</v>
       </c>
       <c r="C195" t="n">
         <v>100.109</v>
@@ -12285,7 +12288,7 @@
         <v>211</v>
       </c>
       <c r="B196" t="n">
-        <v>175.1</v>
+        <v>174.9</v>
       </c>
       <c r="C196" t="n">
         <v>100.087</v>
@@ -12324,13 +12327,66 @@
         <v>87.43</v>
       </c>
       <c r="O196" t="n">
-        <v>78.3</v>
+        <v>78</v>
       </c>
       <c r="P196" t="n">
         <v>116.7</v>
       </c>
       <c r="Q196" t="n">
         <v>358</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>212</v>
+      </c>
+      <c r="B197" t="n">
+        <v>177.1</v>
+      </c>
+      <c r="C197" t="n">
+        <v>100.152</v>
+      </c>
+      <c r="D197" t="n">
+        <v>-79.3</v>
+      </c>
+      <c r="E197" t="n">
+        <v>127.45</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1697.3</v>
+      </c>
+      <c r="G197" t="n">
+        <v>449297713</v>
+      </c>
+      <c r="H197" t="n">
+        <v>2947.7</v>
+      </c>
+      <c r="I197" t="n">
+        <v>100.548</v>
+      </c>
+      <c r="J197" t="n">
+        <v>148.38</v>
+      </c>
+      <c r="K197" t="n">
+        <v>5017111.6</v>
+      </c>
+      <c r="L197" t="n">
+        <v>1367192.1</v>
+      </c>
+      <c r="M197" t="n">
+        <v>3667075.8</v>
+      </c>
+      <c r="N197" t="n">
+        <v>84.26</v>
+      </c>
+      <c r="O197" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="P197" t="n">
+        <v>118.59</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>572.7</v>
       </c>
     </row>
   </sheetData>
@@ -12349,72 +12405,72 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="R1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="S1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="T1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="U1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B2" t="n">
         <v>10</v>
@@ -12471,7 +12527,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B3" t="n">
         <v>4.7</v>
@@ -12528,7 +12584,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B4" t="n">
         <v>4.2</v>
@@ -12585,7 +12641,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B5" t="n">
         <v>2.4</v>
@@ -12642,7 +12698,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B6" t="n">
         <v>3.6</v>
@@ -12699,7 +12755,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B7" t="n">
         <v>5</v>
@@ -12756,7 +12812,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B8" t="n">
         <v>-0.2</v>
@@ -12813,7 +12869,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B9" t="n">
         <v>2.7</v>
@@ -12870,7 +12926,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B10" t="n">
         <v>2.5</v>
@@ -12927,7 +12983,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B11" t="n">
         <v>-5</v>
@@ -12984,7 +13040,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B12" t="n">
         <v>-3.1</v>
@@ -13041,7 +13097,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B13" t="n">
         <v>0.5</v>
@@ -13098,7 +13154,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B14" t="n">
         <v>10.5</v>
@@ -13155,7 +13211,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B15" t="n">
         <v>2.3</v>
@@ -13212,7 +13268,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B16" t="n">
         <v>3.4</v>
@@ -13269,7 +13325,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B17" t="n">
         <v>1.8</v>
@@ -13326,7 +13382,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B18" t="n">
         <v>0.8</v>
@@ -13383,7 +13439,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B19" t="n">
         <v>-1.5</v>
@@ -13440,7 +13496,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B20" t="n">
         <v>3.5</v>
@@ -13497,7 +13553,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B21" t="n">
         <v>3.1</v>
@@ -13554,7 +13610,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B22" t="n">
         <v>2.6</v>
@@ -13611,7 +13667,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B23" t="n">
         <v>1.2</v>
@@ -13668,7 +13724,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B24" t="n">
         <v>3</v>
@@ -13725,7 +13781,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B25" t="n">
         <v>3</v>
@@ -13782,7 +13838,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B26" t="n">
         <v>4.1</v>
@@ -13839,7 +13895,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B27" t="n">
         <v>-4.5</v>
@@ -13896,7 +13952,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B28" t="n">
         <v>5</v>
@@ -13953,7 +14009,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B29" t="n">
         <v>0.2</v>
@@ -14010,7 +14066,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B30" t="n">
         <v>-1.5</v>
@@ -14067,7 +14123,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B31" t="n">
         <v>0.6</v>
@@ -14124,7 +14180,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B32" t="n">
         <v>3.9</v>
@@ -14181,7 +14237,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B33" t="n">
         <v>0.7</v>
@@ -14238,7 +14294,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B34" t="n">
         <v>-9.6</v>
@@ -14295,7 +14351,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B35" t="n">
         <v>-6.6</v>
@@ -14352,7 +14408,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B36" t="n">
         <v>-2.8</v>
@@ -14409,7 +14465,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B37" t="n">
         <v>-0.7</v>
@@ -14466,7 +14522,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B38" t="n">
         <v>1.3</v>
@@ -14523,7 +14579,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B39" t="n">
         <v>0.8</v>
@@ -14580,7 +14636,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B40" t="n">
         <v>-1.7</v>
@@ -14637,7 +14693,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B41" t="n">
         <v>-2.2</v>
@@ -14694,7 +14750,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B42" t="n">
         <v>0.8</v>
@@ -14751,7 +14807,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B43" t="n">
         <v>3.8</v>
@@ -14808,7 +14864,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B44" t="n">
         <v>-1.1</v>
@@ -14865,7 +14921,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B45" t="n">
         <v>-2.7</v>
@@ -14922,7 +14978,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B46" t="n">
         <v>2.2</v>
@@ -14979,7 +15035,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B47" t="n">
         <v>3.4</v>
@@ -15036,7 +15092,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B48" t="n">
         <v>8.6</v>
@@ -15093,7 +15149,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B49" t="n">
         <v>-4</v>
@@ -15150,7 +15206,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B50" t="n">
         <v>2.7</v>
@@ -15207,7 +15263,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B51" t="n">
         <v>0.1</v>
@@ -15264,7 +15320,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B52" t="n">
         <v>1.1</v>
@@ -15321,7 +15377,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B53" t="n">
         <v>4.7</v>
@@ -15378,7 +15434,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B54" t="n">
         <v>2.7</v>
@@ -15435,7 +15491,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B55" t="n">
         <v>-0.1</v>
@@ -15492,7 +15548,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B56" t="n">
         <v>2</v>
@@ -15549,7 +15605,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B57" t="n">
         <v>3.7</v>
@@ -15606,7 +15662,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B58" t="n">
         <v>-1.1</v>
@@ -15663,7 +15719,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B59" t="n">
         <v>-0.2</v>
@@ -15720,7 +15776,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B60" t="n">
         <v>-1</v>
@@ -15777,7 +15833,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B61" t="n">
         <v>-1.3</v>
@@ -15834,7 +15890,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B62" t="n">
         <v>-0.2</v>
@@ -15891,7 +15947,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B63" t="n">
         <v>4.1</v>
@@ -15948,7 +16004,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B64" t="n">
         <v>-1.7</v>
@@ -16005,7 +16061,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B65" t="n">
         <v>-1.5</v>
@@ -16062,7 +16118,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B66" t="n">
         <v>0.7</v>
@@ -16119,7 +16175,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B67" t="n">
         <v>-1.3</v>
@@ -16176,7 +16232,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B68" t="n">
         <v>2</v>
@@ -16233,7 +16289,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B69" t="n">
         <v>4.1</v>
@@ -16290,7 +16346,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B70" t="n">
         <v>-1.6</v>
@@ -16347,7 +16403,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B71" t="n">
         <v>-2.4</v>
@@ -16404,7 +16460,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B72" t="n">
         <v>-0.3</v>
@@ -16461,7 +16517,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B73" t="n">
         <v>5.5</v>
@@ -16518,7 +16574,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B74" t="n">
         <v>-5.1</v>
@@ -16575,7 +16631,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B75" t="n">
         <v>-0.6</v>
@@ -16632,7 +16688,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B76" t="n">
         <v>0.5</v>
@@ -16689,7 +16745,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B77" t="n">
         <v>-1.9</v>
@@ -16746,7 +16802,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B78" t="n">
         <v>3.8</v>
@@ -16803,7 +16859,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B79" t="n">
         <v>2.2</v>
@@ -16860,7 +16916,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B80" t="n">
         <v>-1.1</v>
@@ -16917,7 +16973,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -16974,7 +17030,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -17031,7 +17087,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B83" t="n">
         <v>-4.3</v>
@@ -17088,7 +17144,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B84" t="n">
         <v>-1.4</v>
@@ -17145,7 +17201,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B85" t="n">
         <v>1.1</v>
@@ -17202,7 +17258,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B86" t="n">
         <v>-2.2</v>
@@ -17265,7 +17321,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B87" t="n">
         <v>-0.1</v>
@@ -17328,7 +17384,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B88" t="n">
         <v>-0.3</v>
@@ -17391,7 +17447,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B89" t="n">
         <v>2.2</v>
@@ -17454,7 +17510,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B90" t="n">
         <v>-4.3</v>
@@ -17517,7 +17573,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B91" t="n">
         <v>-1.7</v>
@@ -17580,7 +17636,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B92" t="n">
         <v>0.5</v>
@@ -17643,7 +17699,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B93" t="n">
         <v>1.6</v>
@@ -17706,7 +17762,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B94" t="n">
         <v>2.4</v>
@@ -17769,7 +17825,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B95" t="n">
         <v>4.7</v>
@@ -17832,7 +17888,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B96" t="n">
         <v>-1.1</v>
@@ -17895,7 +17951,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B97" t="n">
         <v>-0.5</v>
@@ -17958,7 +18014,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B98" t="n">
         <v>0.8</v>
@@ -18021,7 +18077,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B99" t="n">
         <v>0.8</v>
@@ -18084,7 +18140,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B100" t="n">
         <v>0.8</v>
@@ -18147,7 +18203,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B101" t="n">
         <v>-2.4</v>
@@ -18210,7 +18266,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B102" t="n">
         <v>5.1</v>
@@ -18273,7 +18329,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B103" t="n">
         <v>2.3</v>
@@ -18336,7 +18392,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B104" t="n">
         <v>2.7</v>
@@ -18399,7 +18455,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B105" t="n">
         <v>-0.4</v>
@@ -18462,7 +18518,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B106" t="n">
         <v>4.8</v>
@@ -18525,7 +18581,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B107" t="n">
         <v>2</v>
@@ -18588,7 +18644,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B108" t="n">
         <v>3.2</v>
@@ -18651,7 +18707,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B109" t="n">
         <v>0.6</v>
@@ -18714,7 +18770,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B110" t="n">
         <v>4.2</v>
@@ -18777,7 +18833,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B111" t="n">
         <v>0.9</v>
@@ -18840,7 +18896,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B112" t="n">
         <v>1.3</v>
@@ -18903,7 +18959,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B113" t="n">
         <v>-3.2</v>
@@ -18966,7 +19022,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B114" t="n">
         <v>1.1</v>
@@ -19029,7 +19085,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B115" t="n">
         <v>-3</v>
@@ -19092,7 +19148,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B116" t="n">
         <v>-3.9</v>
@@ -19155,7 +19211,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B117" t="n">
         <v>-0.1</v>
@@ -19218,7 +19274,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B118" t="n">
         <v>-0.6</v>
@@ -19281,7 +19337,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B119" t="n">
         <v>2.5</v>
@@ -19344,7 +19400,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B120" t="n">
         <v>-2.3</v>
@@ -19407,7 +19463,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B121" t="n">
         <v>4.4</v>
@@ -19470,7 +19526,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B122" t="n">
         <v>1.4</v>
@@ -19533,7 +19589,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B123" t="n">
         <v>-2.7</v>
@@ -19596,7 +19652,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B124" t="n">
         <v>-2.3</v>
@@ -19659,7 +19715,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B125" t="n">
         <v>2.4</v>
@@ -19722,7 +19778,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B126" t="n">
         <v>0.1</v>
@@ -19785,7 +19841,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B127" t="n">
         <v>-1.5</v>
@@ -19848,7 +19904,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B128" t="n">
         <v>-2</v>
@@ -19911,7 +19967,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B129" t="n">
         <v>2</v>
@@ -19947,7 +20003,7 @@
         <v>105.5</v>
       </c>
       <c r="M129" t="n">
-        <v>122.7</v>
+        <v>122.6</v>
       </c>
       <c r="N129"/>
       <c r="O129" t="n">
@@ -19974,7 +20030,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B130" t="n">
         <v>-3.9</v>
@@ -20005,13 +20061,15 @@
         <v>140.21</v>
       </c>
       <c r="L130"/>
-      <c r="M130"/>
+      <c r="M130" t="n">
+        <v>126.7</v>
+      </c>
       <c r="N130"/>
       <c r="O130" t="n">
         <v>88.09</v>
       </c>
       <c r="P130" t="n">
-        <v>78</v>
+        <v>77.9</v>
       </c>
       <c r="Q130"/>
       <c r="R130" t="n">
@@ -20043,55 +20101,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2">
@@ -21680,834 +21738,834 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="J1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E2" t="n">
         <v>195</v>
       </c>
       <c r="F2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E3" t="n">
         <v>437</v>
       </c>
       <c r="F3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E4" t="n">
         <v>248</v>
       </c>
       <c r="F4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E5" t="n">
         <v>507</v>
       </c>
       <c r="F5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="J5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E6" t="n">
         <v>248</v>
       </c>
       <c r="F6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E7" t="n">
         <v>616</v>
       </c>
       <c r="F7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E8" t="n">
         <v>248</v>
       </c>
       <c r="F8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E9" t="n">
         <v>248</v>
       </c>
       <c r="F9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B10" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C10" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E10" t="n">
         <v>507</v>
       </c>
       <c r="F10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I10" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="J10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B11" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C11" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D11" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E11" t="n">
         <v>616</v>
       </c>
       <c r="F11" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H11" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J11" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B12" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C12" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D12" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E12" t="n">
         <v>507</v>
       </c>
       <c r="F12" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G12" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H12" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I12" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="J12" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B13" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C13" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E13" t="n">
         <v>437</v>
       </c>
       <c r="F13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G13" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H13" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I13" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J13" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B14" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C14" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D14" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E14" t="n">
         <v>616</v>
       </c>
       <c r="F14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G14" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H14" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I14" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J14" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B15" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C15" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D15" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E15" t="n">
         <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G15" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H15" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="I15" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J15" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B16" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C16" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D16" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E16" t="n">
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G16" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H16" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I16" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J16" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B17" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C17" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E17" t="n">
         <v>435</v>
       </c>
       <c r="F17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G17" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H17" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="I17" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J17" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B18" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C18" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D18" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E18" t="n">
         <v>627</v>
       </c>
       <c r="F18" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G18" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H18" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I18" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J18" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B19" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C19" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D19" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E19" t="n">
         <v>435</v>
       </c>
       <c r="F19" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G19" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H19" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I19" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="J19" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B20" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C20" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D20" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E20" t="n">
         <v>412</v>
       </c>
       <c r="F20" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G20" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H20" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I20" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="J20" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C21" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D21" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E21" t="n">
         <v>507</v>
       </c>
       <c r="F21" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G21" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H21" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I21" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J21" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B22" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C22" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D22" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E22" t="n">
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G22" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H22" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I22" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J22" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B23" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C23" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D23" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E23" t="n">
         <v>688</v>
       </c>
       <c r="F23" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G23" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H23" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I23" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="J23" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B24" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C24" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D24" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E24" t="n">
         <v>248</v>
       </c>
       <c r="F24" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G24" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H24" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="I24" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J24" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B25" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C25" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D25" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E25" t="n">
         <v>248</v>
       </c>
       <c r="F25" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G25" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H25" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I25" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J25" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B26" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C26" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D26" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E26" t="n">
         <v>507</v>
       </c>
       <c r="F26" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G26" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H26" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I26" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="J26" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
